--- a/Distinguishable/WCAG_1.4.2_AudioControl_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Distinguishable/WCAG_1.4.2_AudioControl_Narayanan_Palani_TestCase_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Distinguishable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BF7E7-C172-45AE-899A-692EFDCA94DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F06F0-5134-4BF7-9A0E-3A62851AD234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
